--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf13-Scn5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Scn5a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.04968833333333333</v>
+        <v>0.1113035</v>
       </c>
       <c r="H2">
-        <v>0.149065</v>
+        <v>0.222607</v>
       </c>
       <c r="I2">
-        <v>0.0179140656029871</v>
+        <v>0.0289261410371415</v>
       </c>
       <c r="J2">
-        <v>0.02630081541085044</v>
+        <v>0.0273813389619527</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0553755</v>
+        <v>0.5100455</v>
       </c>
       <c r="N2">
-        <v>0.110751</v>
+        <v>1.020091</v>
       </c>
       <c r="O2">
-        <v>0.01394734395224909</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="P2">
-        <v>0.01382642777644959</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="Q2">
-        <v>0.0027515163025</v>
+        <v>0.05676984930925</v>
       </c>
       <c r="R2">
-        <v>0.016509097815</v>
+        <v>0.227079397237</v>
       </c>
       <c r="S2">
-        <v>0.0002498536345480156</v>
+        <v>0.002310839813640335</v>
       </c>
       <c r="T2">
-        <v>0.000363646324739856</v>
+        <v>0.002187429292514933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.04968833333333333</v>
+        <v>0.1113035</v>
       </c>
       <c r="H3">
-        <v>0.149065</v>
+        <v>0.222607</v>
       </c>
       <c r="I3">
-        <v>0.0179140656029871</v>
+        <v>0.0289261410371415</v>
       </c>
       <c r="J3">
-        <v>0.02630081541085044</v>
+        <v>0.0273813389619527</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,166 +620,166 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.845507</v>
+        <v>5.874494</v>
       </c>
       <c r="N3">
-        <v>7.691014000000001</v>
+        <v>11.748988</v>
       </c>
       <c r="O3">
-        <v>0.968562068058646</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="P3">
-        <v>0.9601651416119283</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="Q3">
-        <v>0.1910768336516667</v>
+        <v>0.6538517429290001</v>
       </c>
       <c r="R3">
-        <v>1.14646100191</v>
+        <v>2.615406971716</v>
       </c>
       <c r="S3">
-        <v>0.01735088442776744</v>
+        <v>0.02661530122350117</v>
       </c>
       <c r="T3">
-        <v>0.0252531261534684</v>
+        <v>0.02519390966943776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04968833333333333</v>
+        <v>0.406345</v>
       </c>
       <c r="H4">
-        <v>0.149065</v>
+        <v>1.219035</v>
       </c>
       <c r="I4">
-        <v>0.0179140656029871</v>
+        <v>0.1056030832789379</v>
       </c>
       <c r="J4">
-        <v>0.02630081541085044</v>
+        <v>0.1499450176386367</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06084433333333333</v>
+        <v>0.5100455</v>
       </c>
       <c r="N4">
-        <v>0.182533</v>
+        <v>1.020091</v>
       </c>
       <c r="O4">
-        <v>0.015324770783926</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="P4">
-        <v>0.02278786955710263</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="Q4">
-        <v>0.003023253516111111</v>
+        <v>0.2072544386975</v>
       </c>
       <c r="R4">
-        <v>0.027209281645</v>
+        <v>1.243526632185</v>
       </c>
       <c r="S4">
-        <v>0.0002745289491739905</v>
+        <v>0.008436376251184211</v>
       </c>
       <c r="T4">
-        <v>0.0005993395508278944</v>
+        <v>0.01197874670428577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04968833333333333</v>
+        <v>0.406345</v>
       </c>
       <c r="H5">
-        <v>0.149065</v>
+        <v>1.219035</v>
       </c>
       <c r="I5">
-        <v>0.0179140656029871</v>
+        <v>0.1056030832789379</v>
       </c>
       <c r="J5">
-        <v>0.02630081541085044</v>
+        <v>0.1499450176386367</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008599000000000001</v>
+        <v>5.874494</v>
       </c>
       <c r="N5">
-        <v>0.025797</v>
+        <v>11.748988</v>
       </c>
       <c r="O5">
-        <v>0.002165817205179004</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="P5">
-        <v>0.003220561054519328</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="Q5">
-        <v>0.0004272699783333333</v>
+        <v>2.38707126443</v>
       </c>
       <c r="R5">
-        <v>0.003845429805</v>
+        <v>14.32242758658</v>
       </c>
       <c r="S5">
-        <v>3.879859149765486E-05</v>
+        <v>0.09716670702775368</v>
       </c>
       <c r="T5">
-        <v>8.47033818142867E-05</v>
+        <v>0.137966270934351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,60 +788,60 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.65342</v>
+        <v>3.3023715</v>
       </c>
       <c r="H6">
-        <v>5.306839999999999</v>
+        <v>6.604743</v>
       </c>
       <c r="I6">
-        <v>0.9566338165017548</v>
+        <v>0.8582377352557337</v>
       </c>
       <c r="J6">
-        <v>0.9363312598860736</v>
+        <v>0.8124035041107618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0553755</v>
+        <v>0.5100455</v>
       </c>
       <c r="N6">
-        <v>0.110751</v>
+        <v>1.020091</v>
       </c>
       <c r="O6">
-        <v>0.01394734395224909</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="P6">
-        <v>0.01382642777644959</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="Q6">
-        <v>0.14693445921</v>
+        <v>1.68435972290325</v>
       </c>
       <c r="R6">
-        <v>0.5877378368399999</v>
+        <v>6.737438891613</v>
       </c>
       <c r="S6">
-        <v>0.01334250087510272</v>
+        <v>0.06856254782312464</v>
       </c>
       <c r="T6">
-        <v>0.01294611653964685</v>
+        <v>0.06490096137018583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.65342</v>
+        <v>3.3023715</v>
       </c>
       <c r="H7">
-        <v>5.306839999999999</v>
+        <v>6.604743</v>
       </c>
       <c r="I7">
-        <v>0.9566338165017548</v>
+        <v>0.8582377352557337</v>
       </c>
       <c r="J7">
-        <v>0.9363312598860736</v>
+        <v>0.8124035041107618</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,246 +868,246 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.845507</v>
+        <v>5.874494</v>
       </c>
       <c r="N7">
-        <v>7.691014000000001</v>
+        <v>11.748988</v>
       </c>
       <c r="O7">
-        <v>0.968562068058646</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="P7">
-        <v>0.9601651416119283</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="Q7">
-        <v>10.20374518394</v>
+        <v>19.399761562521</v>
       </c>
       <c r="R7">
-        <v>40.81498073576</v>
+        <v>77.599046250084</v>
       </c>
       <c r="S7">
-        <v>0.9265592276857749</v>
+        <v>0.789675187432609</v>
       </c>
       <c r="T7">
-        <v>0.8990326367441871</v>
+        <v>0.7475025427405759</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.65342</v>
+        <v>0.0004946666666666667</v>
       </c>
       <c r="H8">
-        <v>5.306839999999999</v>
+        <v>0.001484</v>
       </c>
       <c r="I8">
-        <v>0.9566338165017548</v>
+        <v>0.0001285565841718604</v>
       </c>
       <c r="J8">
-        <v>0.9363312598860736</v>
+        <v>0.0001825365196042254</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.06084433333333333</v>
+        <v>0.5100455</v>
       </c>
       <c r="N8">
-        <v>0.182533</v>
+        <v>1.020091</v>
       </c>
       <c r="O8">
-        <v>0.015324770783926</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="P8">
-        <v>0.02278786955710263</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="Q8">
-        <v>0.1614455709533333</v>
+        <v>0.0002523025073333334</v>
       </c>
       <c r="R8">
-        <v>0.9686734257199999</v>
+        <v>0.001513815044</v>
       </c>
       <c r="S8">
-        <v>0.01466019396204172</v>
+        <v>1.027007621336333E-05</v>
       </c>
       <c r="T8">
-        <v>0.0213369946125214</v>
+        <v>1.45824033839554E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.65342</v>
+        <v>0.0004946666666666667</v>
       </c>
       <c r="H9">
-        <v>5.306839999999999</v>
+        <v>0.001484</v>
       </c>
       <c r="I9">
-        <v>0.9566338165017548</v>
+        <v>0.0001285565841718604</v>
       </c>
       <c r="J9">
-        <v>0.9363312598860736</v>
+        <v>0.0001825365196042254</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008599000000000001</v>
+        <v>5.874494</v>
       </c>
       <c r="N9">
-        <v>0.025797</v>
+        <v>11.748988</v>
       </c>
       <c r="O9">
-        <v>0.002165817205179004</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="P9">
-        <v>0.003220561054519328</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="Q9">
-        <v>0.02281675858</v>
+        <v>0.002905916365333334</v>
       </c>
       <c r="R9">
-        <v>0.13690055148</v>
+        <v>0.017435498192</v>
       </c>
       <c r="S9">
-        <v>0.002071893978835555</v>
+        <v>0.0001182865079584971</v>
       </c>
       <c r="T9">
-        <v>0.003015511989718104</v>
+        <v>0.00016795411622027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07059666666666667</v>
+        <v>0.027337</v>
       </c>
       <c r="H10">
-        <v>0.21179</v>
+        <v>0.082011</v>
       </c>
       <c r="I10">
-        <v>0.02545211789525803</v>
+        <v>0.007104483844015123</v>
       </c>
       <c r="J10">
-        <v>0.03736792470307595</v>
+        <v>0.01008760276904456</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0553755</v>
+        <v>0.5100455</v>
       </c>
       <c r="N10">
-        <v>0.110751</v>
+        <v>1.020091</v>
       </c>
       <c r="O10">
-        <v>0.01394734395224909</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="P10">
-        <v>0.01382642777644959</v>
+        <v>0.07988759408568151</v>
       </c>
       <c r="Q10">
-        <v>0.003909325715</v>
+        <v>0.0139431138335</v>
       </c>
       <c r="R10">
-        <v>0.02345595429</v>
+        <v>0.083658683001</v>
       </c>
       <c r="S10">
-        <v>0.000354989442598358</v>
+        <v>0.0005675601215189624</v>
       </c>
       <c r="T10">
-        <v>0.0005166649120628862</v>
+        <v>0.0008058743153110287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07059666666666667</v>
+        <v>0.027337</v>
       </c>
       <c r="H11">
-        <v>0.21179</v>
+        <v>0.082011</v>
       </c>
       <c r="I11">
-        <v>0.02545211789525803</v>
+        <v>0.007104483844015123</v>
       </c>
       <c r="J11">
-        <v>0.03736792470307595</v>
+        <v>0.01008760276904456</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,152 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.845507</v>
+        <v>5.874494</v>
       </c>
       <c r="N11">
-        <v>7.691014000000001</v>
+        <v>11.748988</v>
       </c>
       <c r="O11">
-        <v>0.968562068058646</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="P11">
-        <v>0.9601651416119283</v>
+        <v>0.9201124059143184</v>
       </c>
       <c r="Q11">
-        <v>0.2714799758433334</v>
+        <v>0.160591042478</v>
       </c>
       <c r="R11">
-        <v>1.62887985506</v>
+        <v>0.9635462548680001</v>
       </c>
       <c r="S11">
-        <v>0.02465195594510359</v>
+        <v>0.00653692372249616</v>
       </c>
       <c r="T11">
-        <v>0.03587937871427279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.07059666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.21179</v>
-      </c>
-      <c r="I12">
-        <v>0.02545211789525803</v>
-      </c>
-      <c r="J12">
-        <v>0.03736792470307595</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.06084433333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.182533</v>
-      </c>
-      <c r="O12">
-        <v>0.015324770783926</v>
-      </c>
-      <c r="P12">
-        <v>0.02278786955710263</v>
-      </c>
-      <c r="Q12">
-        <v>0.004295407118888889</v>
-      </c>
-      <c r="R12">
-        <v>0.03865866407</v>
-      </c>
-      <c r="S12">
-        <v>0.0003900478727102905</v>
-      </c>
-      <c r="T12">
-        <v>0.0008515353937533276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.07059666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.21179</v>
-      </c>
-      <c r="I13">
-        <v>0.02545211789525803</v>
-      </c>
-      <c r="J13">
-        <v>0.03736792470307595</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.008599000000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.025797</v>
-      </c>
-      <c r="O13">
-        <v>0.002165817205179004</v>
-      </c>
-      <c r="P13">
-        <v>0.003220561054519328</v>
-      </c>
-      <c r="Q13">
-        <v>0.0006070607366666668</v>
-      </c>
-      <c r="R13">
-        <v>0.005463546630000001</v>
-      </c>
-      <c r="S13">
-        <v>5.512463484579426E-05</v>
-      </c>
-      <c r="T13">
-        <v>0.0001203456829869371</v>
+        <v>0.009281728453733533</v>
       </c>
     </row>
   </sheetData>
